--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1778,10 +1790,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1825,28 +1837,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1871,28 +1883,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2108,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2143,28 +2155,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2201,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2934,10 +2946,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2981,28 +2993,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3027,28 +3039,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4032,10 +4044,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4079,28 +4091,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4125,28 +4137,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4263,10 +4275,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4310,28 +4322,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4356,28 +4368,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4494,10 +4506,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4541,28 +4553,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4587,28 +4599,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4696,10 +4708,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4743,28 +4755,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4789,28 +4801,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +4997,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5044,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5090,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5216,10 +5228,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5263,28 +5275,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5309,28 +5321,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5447,10 +5459,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5494,28 +5506,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5540,28 +5552,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5719,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5766,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5812,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5938,10 +5950,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5985,28 +5997,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6031,28 +6043,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6140,10 +6152,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6187,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6233,28 +6245,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6342,10 +6354,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6389,28 +6401,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6435,28 +6447,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6527,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
